--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.255781</v>
+        <v>3.156457666666666</v>
       </c>
       <c r="H2">
-        <v>3.767343</v>
+        <v>9.469372999999999</v>
       </c>
       <c r="I2">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="J2">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N2">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q2">
-        <v>11.87989211511567</v>
+        <v>13.50297973980923</v>
       </c>
       <c r="R2">
-        <v>106.919029036041</v>
+        <v>121.526817658283</v>
       </c>
       <c r="S2">
-        <v>0.001339022161974888</v>
+        <v>0.001415099349979277</v>
       </c>
       <c r="T2">
-        <v>0.001339022161974888</v>
+        <v>0.001415099349979277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.255781</v>
+        <v>3.156457666666666</v>
       </c>
       <c r="H3">
-        <v>3.767343</v>
+        <v>9.469372999999999</v>
       </c>
       <c r="I3">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="J3">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q3">
-        <v>57.99518933263967</v>
+        <v>145.7733155691919</v>
       </c>
       <c r="R3">
-        <v>521.9567039937571</v>
+        <v>1311.959840122727</v>
       </c>
       <c r="S3">
-        <v>0.006536830726394018</v>
+        <v>0.01527690391907541</v>
       </c>
       <c r="T3">
-        <v>0.006536830726394018</v>
+        <v>0.01527690391907541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.255781</v>
+        <v>3.156457666666666</v>
       </c>
       <c r="H4">
-        <v>3.767343</v>
+        <v>9.469372999999999</v>
       </c>
       <c r="I4">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="J4">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N4">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O4">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P4">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q4">
-        <v>10.50499400836066</v>
+        <v>27.01342976276288</v>
       </c>
       <c r="R4">
-        <v>94.544946075246</v>
+        <v>243.120867864866</v>
       </c>
       <c r="S4">
-        <v>0.001184052822391425</v>
+        <v>0.002830981578480595</v>
       </c>
       <c r="T4">
-        <v>0.001184052822391425</v>
+        <v>0.002830981578480595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.255781</v>
+        <v>3.156457666666666</v>
       </c>
       <c r="H5">
-        <v>3.767343</v>
+        <v>9.469372999999999</v>
       </c>
       <c r="I5">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="J5">
-        <v>0.01633546530699055</v>
+        <v>0.03431910465203977</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N5">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O5">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P5">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q5">
-        <v>64.54924013567633</v>
+        <v>141.1856389807118</v>
       </c>
       <c r="R5">
-        <v>580.9431612210871</v>
+        <v>1270.670750826406</v>
       </c>
       <c r="S5">
-        <v>0.00727555959623022</v>
+        <v>0.01479611980450449</v>
       </c>
       <c r="T5">
-        <v>0.007275559596230221</v>
+        <v>0.01479611980450448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>192.520252</v>
       </c>
       <c r="I6">
-        <v>0.8347814089237634</v>
+        <v>0.6977360249749448</v>
       </c>
       <c r="J6">
-        <v>0.8347814089237633</v>
+        <v>0.6977360249749449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N6">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q6">
-        <v>607.0909454580803</v>
+        <v>274.5268416672325</v>
       </c>
       <c r="R6">
-        <v>5463.818509122723</v>
+        <v>2470.741575005092</v>
       </c>
       <c r="S6">
-        <v>0.068427240115113</v>
+        <v>0.02877015019506007</v>
       </c>
       <c r="T6">
-        <v>0.068427240115113</v>
+        <v>0.02877015019506007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>192.520252</v>
       </c>
       <c r="I7">
-        <v>0.8347814089237634</v>
+        <v>0.6977360249749448</v>
       </c>
       <c r="J7">
-        <v>0.8347814089237633</v>
+        <v>0.6977360249749449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q7">
         <v>2963.693102833349</v>
@@ -883,10 +883,10 @@
         <v>26673.23792550014</v>
       </c>
       <c r="S7">
-        <v>0.3340477091485217</v>
+        <v>0.3105921999566588</v>
       </c>
       <c r="T7">
-        <v>0.3340477091485217</v>
+        <v>0.3105921999566588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>192.520252</v>
       </c>
       <c r="I8">
-        <v>0.8347814089237634</v>
+        <v>0.6977360249749448</v>
       </c>
       <c r="J8">
-        <v>0.8347814089237633</v>
+        <v>0.6977360249749449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N8">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O8">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P8">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q8">
-        <v>536.8303586235936</v>
+        <v>549.2055604221536</v>
       </c>
       <c r="R8">
-        <v>4831.473227612343</v>
+        <v>4942.850043799383</v>
       </c>
       <c r="S8">
-        <v>0.06050793563211746</v>
+        <v>0.05755621696351404</v>
       </c>
       <c r="T8">
-        <v>0.06050793563211747</v>
+        <v>0.05755621696351405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>192.520252</v>
       </c>
       <c r="I9">
-        <v>0.8347814089237634</v>
+        <v>0.6977360249749448</v>
       </c>
       <c r="J9">
-        <v>0.8347814089237633</v>
+        <v>0.6977360249749449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N9">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O9">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P9">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q9">
-        <v>3298.62079914914</v>
+        <v>2870.421810963371</v>
       </c>
       <c r="R9">
-        <v>29687.58719234226</v>
+        <v>25833.79629867034</v>
       </c>
       <c r="S9">
-        <v>0.3717985240280112</v>
+        <v>0.3008174578597119</v>
       </c>
       <c r="T9">
-        <v>0.3717985240280112</v>
+        <v>0.3008174578597119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.310205333333334</v>
+        <v>21.527469</v>
       </c>
       <c r="H10">
-        <v>27.930616</v>
+        <v>64.582407</v>
       </c>
       <c r="I10">
-        <v>0.1211091235045164</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="J10">
-        <v>0.1211091235045163</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N10">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q10">
-        <v>88.07605380999914</v>
+        <v>92.09215153623302</v>
       </c>
       <c r="R10">
-        <v>792.684484289992</v>
+        <v>828.8293638260972</v>
       </c>
       <c r="S10">
-        <v>0.009927345033783862</v>
+        <v>0.009651169318791975</v>
       </c>
       <c r="T10">
-        <v>0.00992734503378386</v>
+        <v>0.009651169318791973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.310205333333334</v>
+        <v>21.527469</v>
       </c>
       <c r="H11">
-        <v>27.930616</v>
+        <v>64.582407</v>
       </c>
       <c r="I11">
-        <v>0.1211091235045164</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="J11">
-        <v>0.1211091235045163</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q11">
-        <v>429.9691753836205</v>
+        <v>994.193765081277</v>
       </c>
       <c r="R11">
-        <v>3869.722578452584</v>
+        <v>8947.743885731494</v>
       </c>
       <c r="S11">
-        <v>0.048463256166458</v>
+        <v>0.1041905548130403</v>
       </c>
       <c r="T11">
-        <v>0.048463256166458</v>
+        <v>0.1041905548130403</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.310205333333334</v>
+        <v>21.527469</v>
       </c>
       <c r="H12">
-        <v>27.930616</v>
+        <v>64.582407</v>
       </c>
       <c r="I12">
-        <v>0.1211091235045164</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="J12">
-        <v>0.1211091235045163</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N12">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O12">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P12">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q12">
-        <v>77.88272894977244</v>
+        <v>184.235251415766</v>
       </c>
       <c r="R12">
-        <v>700.9445605479519</v>
+        <v>1658.117262741894</v>
       </c>
       <c r="S12">
-        <v>0.008778421477930492</v>
+        <v>0.01930767797518761</v>
       </c>
       <c r="T12">
-        <v>0.00877842147793049</v>
+        <v>0.01930767797518761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.310205333333334</v>
+        <v>21.527469</v>
       </c>
       <c r="H13">
-        <v>27.930616</v>
+        <v>64.582407</v>
       </c>
       <c r="I13">
-        <v>0.1211091235045164</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="J13">
-        <v>0.1211091235045163</v>
+        <v>0.2340609441104101</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N13">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O13">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P13">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q13">
-        <v>478.5600990728382</v>
+        <v>962.905189098306</v>
       </c>
       <c r="R13">
-        <v>4307.040891655543</v>
+        <v>8666.146701884754</v>
       </c>
       <c r="S13">
-        <v>0.05394010082634401</v>
+        <v>0.1009115420033902</v>
       </c>
       <c r="T13">
-        <v>0.053940100826344</v>
+        <v>0.1009115420033902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.135113</v>
+        <v>3.116432666666667</v>
       </c>
       <c r="H14">
-        <v>6.405339</v>
+        <v>9.349298000000001</v>
       </c>
       <c r="I14">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="J14">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N14">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q14">
-        <v>20.19851558001034</v>
+        <v>13.33175717921756</v>
       </c>
       <c r="R14">
-        <v>181.786640220093</v>
+        <v>119.985814612958</v>
       </c>
       <c r="S14">
-        <v>0.00227664188685821</v>
+        <v>0.001397155389545069</v>
       </c>
       <c r="T14">
-        <v>0.002276641886858209</v>
+        <v>0.001397155389545069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.135113</v>
+        <v>3.116432666666667</v>
       </c>
       <c r="H15">
-        <v>6.405339</v>
+        <v>9.349298000000001</v>
       </c>
       <c r="I15">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="J15">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.547699</v>
       </c>
       <c r="O15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q15">
-        <v>98.60499775166234</v>
+        <v>143.9248583517002</v>
       </c>
       <c r="R15">
-        <v>887.4449797649609</v>
+        <v>1295.323725165302</v>
       </c>
       <c r="S15">
-        <v>0.01111409733283376</v>
+        <v>0.01508318737225833</v>
       </c>
       <c r="T15">
-        <v>0.01111409733283376</v>
+        <v>0.01508318737225833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.135113</v>
+        <v>3.116432666666667</v>
       </c>
       <c r="H16">
-        <v>6.405339</v>
+        <v>9.349298000000001</v>
       </c>
       <c r="I16">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="J16">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N16">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O16">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P16">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q16">
-        <v>17.86087643639533</v>
+        <v>26.67088991574622</v>
       </c>
       <c r="R16">
-        <v>160.747887927558</v>
+        <v>240.038009241716</v>
       </c>
       <c r="S16">
-        <v>0.002013158802191323</v>
+        <v>0.002795083730435529</v>
       </c>
       <c r="T16">
-        <v>0.002013158802191323</v>
+        <v>0.002795083730435529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.135113</v>
+        <v>3.116432666666667</v>
       </c>
       <c r="H17">
-        <v>6.405339</v>
+        <v>9.349298000000001</v>
       </c>
       <c r="I17">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="J17">
-        <v>0.02777400226472969</v>
+        <v>0.03388392626260537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N17">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O17">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P17">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q17">
-        <v>109.7483731270057</v>
+        <v>139.3953551255285</v>
       </c>
       <c r="R17">
-        <v>987.7353581430509</v>
+        <v>1254.558196129756</v>
       </c>
       <c r="S17">
-        <v>0.0123701042428464</v>
+        <v>0.01460849977036644</v>
       </c>
       <c r="T17">
-        <v>0.0123701042428464</v>
+        <v>0.01460849977036644</v>
       </c>
     </row>
   </sheetData>
